--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.031021-3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.031021-3.xlsx_with_dialog_acts.xlsx
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3443,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4089,12 +4089,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4735,12 +4735,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4887,12 +4887,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5841,12 +5841,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6827,12 +6827,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6903,12 +6903,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7055,12 +7055,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7245,12 +7245,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8389,12 +8389,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9841,12 +9841,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10373,12 +10373,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10601,12 +10601,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11019,12 +11019,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11057,12 +11057,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11475,12 +11475,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11513,12 +11513,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11665,12 +11665,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12045,12 +12045,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12159,12 +12159,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12463,12 +12463,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12539,12 +12539,12 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12577,12 +12577,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12691,12 +12691,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12767,12 +12767,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12919,12 +12919,12 @@
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13223,12 +13223,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13489,12 +13489,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13869,12 +13869,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14363,12 +14363,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14781,12 +14781,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14971,12 +14971,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15085,12 +15085,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15161,12 +15161,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15959,12 +15959,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16913,12 +16913,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16989,12 +16989,12 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17369,12 +17369,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17407,12 +17407,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17825,12 +17825,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18019,12 +18019,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18057,12 +18057,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18133,12 +18133,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18247,12 +18247,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18285,12 +18285,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18741,12 +18741,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19007,12 +19007,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
